--- a/biology/Zoologie/Drassodes_lapidosus/Drassodes_lapidosus.xlsx
+++ b/biology/Zoologie/Drassodes_lapidosus/Drassodes_lapidosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drassodes lapidosus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drassodes lapidosus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 6 à 13,3 mm et les femelles de 9,3 à 14,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 6 à 13,3 mm et les femelles de 9,3 à 14,7 mm.
 Le céphalothorax est de couleur orangé foncé et l'abdomen de couleur gris-souris.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un chasseur nocturne, il passe la journée sous les pierres, dans une loge de soie[3]. Elle peut se nourrir d'autres araignées.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un chasseur nocturne, il passe la journée sous les pierres, dans une loge de soie. Elle peut se nourrir d'autres araignées.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 17.5, 02/11/2016)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 17.5, 02/11/2016) :
 Drassodes lapidosus bidens (Simon, 1878)
 Drassodes lapidosus lapidosus (Walckenaer, 1802)</t>
         </is>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Walckenaer, 1802 : Faune parisienne, Insectes. ou Histoire abrégée des insectes des environs de Paris. Paris, vol. 2, p. 187-250 (texte intégral).
 Simon, 1878 : Les arachnides de France. Paris, vol. 4, p. 1-334 (texte intégral).</t>
